--- a/results/common_clones_pairs.xlsx
+++ b/results/common_clones_pairs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="16" r:id="rId1"/>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,49 +611,49 @@
         <v>46</v>
       </c>
       <c r="B1" s="2">
-        <v>0.94117647058823495</v>
+        <v>0.8125</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D1">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E1">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>49</v>
+      </c>
+      <c r="H1">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1">
+        <v>12</v>
+      </c>
+      <c r="K1">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1">
+        <v>106</v>
+      </c>
+      <c r="N1">
+        <v>112</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>36</v>
-      </c>
-      <c r="H1">
-        <v>52</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1">
-        <v>45</v>
-      </c>
-      <c r="K1">
-        <v>60</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1">
-        <v>36</v>
-      </c>
-      <c r="N1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -661,149 +661,149 @@
         <v>46</v>
       </c>
       <c r="B2" s="2">
-        <v>0.94117647058823495</v>
+        <v>0.8125</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>49</v>
+      </c>
+      <c r="H2">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2">
         <v>17</v>
       </c>
-      <c r="E2">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="L2" t="s">
         <v>36</v>
       </c>
-      <c r="H2">
-        <v>52</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>17</v>
-      </c>
-      <c r="K2">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="N2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2">
-        <v>0.75</v>
+        <v>0.76470588235294101</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="H3">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="K3">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M3">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="N3">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2">
-        <v>0.71428571428571397</v>
+        <v>0.7</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G4">
+        <v>66</v>
+      </c>
+      <c r="H4">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
         <v>51</v>
       </c>
-      <c r="H4">
-        <v>57</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
       <c r="K4">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N4">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -811,149 +811,149 @@
         <v>48</v>
       </c>
       <c r="B5" s="2">
-        <v>0.71428571428571397</v>
+        <v>0.85714285714285698</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E5">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>85</v>
+      </c>
+      <c r="H5">
+        <v>91</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5">
-        <v>107</v>
-      </c>
-      <c r="H5">
-        <v>113</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5">
-        <v>8</v>
-      </c>
-      <c r="K5">
-        <v>13</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
       <c r="M5">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N5">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="P5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="G6">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H6">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="J6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L6" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="N6">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="P6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2">
-        <v>0.75</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G7">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H7">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J7">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="L7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="N7">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="P7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -961,99 +961,99 @@
         <v>48</v>
       </c>
       <c r="B8" s="2">
-        <v>0.71428571428571397</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8">
+        <v>26</v>
+      </c>
+      <c r="H8">
         <v>32</v>
       </c>
-      <c r="D8">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8">
-        <v>76</v>
-      </c>
-      <c r="H8">
-        <v>82</v>
-      </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J8">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N8">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="P8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2">
-        <v>0.8125</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="G9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="H9">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J9">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9">
+        <v>25</v>
+      </c>
+      <c r="N9">
         <v>33</v>
       </c>
-      <c r="M9">
-        <v>106</v>
-      </c>
-      <c r="N9">
-        <v>112</v>
-      </c>
       <c r="O9" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="P9" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1061,99 +1061,99 @@
         <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>0.8125</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G10">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H10">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="N10">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="O10" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="P10" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2">
-        <v>0.83333333333333304</v>
+        <v>0.76470588235294101</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>47</v>
+      </c>
+      <c r="H11">
+        <v>63</v>
+      </c>
+      <c r="I11" t="s">
         <v>9</v>
       </c>
-      <c r="E11">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11">
-        <v>138</v>
-      </c>
-      <c r="H11">
-        <v>148</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
       <c r="J11">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="L11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="P11" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1161,199 +1161,199 @@
         <v>46</v>
       </c>
       <c r="B12" s="2">
-        <v>0.7</v>
+        <v>0.76470588235294101</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E12">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G12">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H12">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J12">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="K12">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M12">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="N12">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O12" t="s">
         <v>68</v>
       </c>
       <c r="P12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2">
-        <v>0.85714285714285698</v>
+        <v>0.94117647058823495</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E13">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>36</v>
+      </c>
+      <c r="H13">
+        <v>52</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13">
         <v>45</v>
       </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13">
-        <v>85</v>
-      </c>
-      <c r="H13">
-        <v>91</v>
-      </c>
-      <c r="I13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13">
-        <v>11</v>
-      </c>
       <c r="K13">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N13">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="P13" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2">
-        <v>0.9</v>
+        <v>0.94117647058823495</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K14">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N14">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="O14" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="P14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2">
-        <v>0.77777777777777701</v>
+        <v>0.75</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G15">
+        <v>63</v>
+      </c>
+      <c r="H15">
+        <v>71</v>
+      </c>
+      <c r="I15" t="s">
         <v>25</v>
       </c>
-      <c r="H15">
-        <v>34</v>
-      </c>
-      <c r="I15" t="s">
-        <v>44</v>
-      </c>
       <c r="J15">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L15" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="N15">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="O15" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="P15" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1361,49 +1361,49 @@
         <v>48</v>
       </c>
       <c r="B16" s="2">
-        <v>0.77777777777777701</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G16">
+        <v>51</v>
+      </c>
+      <c r="H16">
+        <v>57</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
         <v>26</v>
       </c>
-      <c r="H16">
-        <v>32</v>
-      </c>
-      <c r="I16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-      <c r="K16">
-        <v>11</v>
-      </c>
-      <c r="L16" t="s">
-        <v>43</v>
-      </c>
       <c r="M16">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N16">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="O16" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="P16" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1411,249 +1411,249 @@
         <v>48</v>
       </c>
       <c r="B17" s="2">
-        <v>0.77777777777777701</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G17">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="H17">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L17" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N17">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="P17" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2">
-        <v>0.90909090909090895</v>
+        <v>0.75</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G18">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H18">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J18">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K18">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L18" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="N18">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="O18" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="P18" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2">
-        <v>0.76470588235294101</v>
+        <v>0.75</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G19">
+        <v>39</v>
+      </c>
+      <c r="H19">
         <v>47</v>
       </c>
-      <c r="H19">
-        <v>63</v>
-      </c>
       <c r="I19" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="J19">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K19">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L19" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="N19">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="O19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="P19" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2">
-        <v>0.76470588235294101</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
         <v>13</v>
       </c>
-      <c r="D20">
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20">
+        <v>76</v>
+      </c>
+      <c r="H20">
+        <v>82</v>
+      </c>
+      <c r="I20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20">
+        <v>12</v>
+      </c>
+      <c r="K20">
+        <v>17</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20">
         <v>50</v>
       </c>
-      <c r="E20">
-        <v>66</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20">
-        <v>51</v>
-      </c>
-      <c r="H20">
-        <v>67</v>
-      </c>
-      <c r="I20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20">
-        <v>98</v>
-      </c>
-      <c r="K20">
-        <v>105</v>
-      </c>
-      <c r="L20" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20">
-        <v>68</v>
-      </c>
       <c r="N20">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="O20" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="P20" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2">
-        <v>0.76470588235294101</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G21">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="H21">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="J21">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="L21" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M21">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="N21">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="O21" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="P21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -2085,7 +2085,8 @@
       <c r="F38" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A1:H22">
+  <sortState ref="A1:P22">
+    <sortCondition ref="O1:O22"/>
     <sortCondition ref="F1:F22"/>
     <sortCondition ref="G1:G22"/>
     <sortCondition ref="H1:H22"/>
